--- a/src/attributions/attributions_ig_traj_392.xlsx
+++ b/src/attributions/attributions_ig_traj_392.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.08030761700067746</v>
+        <v>0.08214573442150336</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1270234664305471</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02806587328121773</v>
+        <v>-0.01913091250795114</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.06783295964632886</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,46 +2172,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.06633564592015333</v>
+        <v>0.04374061722760308</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06369195773958775</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01821237886877905</v>
+        <v>-0.01601042827184657</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.06806945814449135</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.005486605480397398</v>
+        <v>-0.00127763642506507</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004837451275003242</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0304201025092336</v>
+        <v>0.005179785805066455</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0.003906712873628661</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,25 +2220,25 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.07676066685045897</v>
+        <v>0.01353631510922677</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.09003824858223296</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.08673274006350369</v>
+        <v>0.03280408339186123</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.001905284614872888</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.053721250457699</v>
+        <v>0.01463004144606882</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.005930479537650164</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.02579212619614227</v>
+        <v>-0.01537401704868254</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.02159545745949689</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1885967161967077</v>
+        <v>0.09105212106193691</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.05074711732578682</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.01698854637133432</v>
+        <v>-0.01526628099689282</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.07592718349233926</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.004340775818929561</v>
+        <v>0.01609377305862226</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.04127934038817806</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0004950834850231545</v>
+        <v>-0.01768080216797477</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.007841393694710463</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2331,22 +2331,22 @@
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0528865624402895</v>
+        <v>0.0319128188397069</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03662317642789546</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.005313136696380148</v>
+        <v>-0.003647862114621259</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01649874335623537</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.01269899903378004</v>
+        <v>0.04650874583189769</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.08803601421428824</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.03148292467355669</v>
+        <v>-0.01859549098041675</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.01321289771740155</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.05366158164841727</v>
+        <v>-0.02107107276171988</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.0403742172592677</v>
+        <v>-0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01738221783279228</v>
+        <v>-0.002646902308021943</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03874116252610966</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,22 +2415,22 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.009708596396295783</v>
+        <v>0.004748909550564845</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.01744192844593316</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.1208236261831025</v>
+        <v>0.004927767134596817</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.00858316222266505</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.05295987917581121</v>
+        <v>-0.01638430205458732</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.03619039242919603</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.008397707907118987</v>
+        <v>-0.00633651791362662</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.04061827773051321</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2469,19 +2469,19 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1544427295154966</v>
+        <v>-0.01395165406102096</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.01690310229865144</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.01951124303975679</v>
+        <v>0.01693230385582111</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.05862285434455801</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.02418598450566821</v>
+        <v>-0.01215479320441775</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.02944820992269022</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.08369243403359662</v>
+        <v>0.02093979523954334</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.01397479280713661</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2517,25 +2517,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.0659681301622554</v>
+        <v>0.005529809601643417</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.06997040761258944</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.009462919741615091</v>
+        <v>-0.00104190625958732</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.0337432897036585</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,31 +2544,31 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.04756228917154151</v>
+        <v>-0.00707322460622516</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.04471869774697466</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.08556977729456036</v>
+        <v>-0.005007470524747527</v>
       </c>
       <c r="EK4" t="n">
-        <v>0</v>
+        <v>0.01436041773935234</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.02321575373301826</v>
+        <v>-0.0044724658078243</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.004032823710500348</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.06102919733569713</v>
+        <v>-0.01662081524248301</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.04209120874618848</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,55 +2598,55 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.04327520014476237</v>
+        <v>-0.01709802969959982</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.02654769436793851</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0193042296142495</v>
+        <v>-0.004038213153856682</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03739611603264326</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01322926870668179</v>
+        <v>-0.01721168603669605</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.03630910911583523</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0138880959131964</v>
+        <v>-0.01266862786867706</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.006771015974397479</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2658,19 +2658,19 @@
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.001756090504377947</v>
+        <v>0.0004028115297530461</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.07374196738539465</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01826062800883489</v>
+        <v>-0.005659639322422538</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03697223092929056</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,25 +2679,25 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.03433936666508491</v>
+        <v>-0.0203997494781948</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.08875982339696137</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.01158145825348885</v>
       </c>
       <c r="GE4" t="n">
         <v>-0</v>
@@ -2714,43 +2714,43 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1850262090325384</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0834196314991483</v>
+        <v>-0.0739457252075945</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06134941889385525</v>
+        <v>-0.08822875280844984</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.04892265889272346</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1013544575443146</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03524169482204981</v>
+        <v>-0.02482183930750002</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02224912481259572</v>
+        <v>-0.07880665851633568</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,61 +2759,61 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.02327161718187941</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.837445897461488e-11</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-9.561382619682694e-12</v>
+        <v>-4.009741021240289e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01085083602735872</v>
+        <v>-0.003297921500067322</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-2.852181875059917e-11</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.07455936139169973</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02334862999560687</v>
+        <v>0.008748743496095949</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.008100168459134947</v>
+        <v>0.02539742544180152</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02957241228580459</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,43 +2822,43 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>-0.01589909874085663</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.03996867724733277</v>
+        <v>-0.04546821402884443</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.06856273291681633</v>
+        <v>-0.09962175883419581</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.01991227236770129</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.3525297250416867</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.09120072622454117</v>
+        <v>0.0008355857290802148</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.07955584981744396</v>
+        <v>0.132544859219493</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,25 +2867,25 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.120327204563001</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.002131580382741768</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.006264957923740568</v>
+        <v>-0.03533213145886058</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.002533493402440628</v>
+        <v>-0.05964730472572649</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.00732696393603542</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1235026456314869</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.007408100110889696</v>
+        <v>0.0409302940226959</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0002429865284945719</v>
+        <v>0.1432491999916329</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.06355442029304313</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1788181425964334</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1032149251269277</v>
+        <v>2.418860652726503e-05</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.03615325533986199</v>
+        <v>0.02862957594109864</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,34 +2948,34 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.07411966893272678</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.05244900957007197</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.04526150058028524</v>
+        <v>0.0173389535984131</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.007276604007579614</v>
+        <v>0.002548643250462707</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.02516749053045734</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.03160850073189755</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.04911295266210476</v>
+        <v>-0.05634780643783325</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.07034121050004152</v>
+        <v>-0.1451649897265145</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -3002,34 +3002,34 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.005259716545625789</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.03149250069204444</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.0417232211239907</v>
+        <v>0.03575504965287382</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.005378987191130992</v>
+        <v>0.02147526787022046</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01550124942457936</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,79 +3038,79 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.001404015594251884</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.003208094975437143</v>
+        <v>0.02240512975192933</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.04209516208607553</v>
+        <v>0.009340065067753396</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.01385864192462781</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.06422048560447932</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.01607214780117957</v>
+        <v>-0.02138961312813754</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02426677618071126</v>
+        <v>-0.01980500850164947</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.002625942846911799</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.02742099939766514</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.03248484642964767</v>
+        <v>-0.04995822605533638</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.003966377256302776</v>
+        <v>-0.03229662945717256</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.03278018862610409</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.03230381516321944</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.0477985545152899</v>
+        <v>0.05194440642616283</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.06266897138979431</v>
+        <v>0.0871428889675059</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0476544366486748</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,52 +3146,52 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.03762404423239918</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.02955628400876482</v>
+        <v>0.04064883848566187</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.03460224384402355</v>
+        <v>0.01022884356063061</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.04259003696648894</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.03968085439558475</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.03745970322275708</v>
+        <v>0.0342020742566838</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.003641612798252128</v>
+        <v>0.02256030572288495</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0230132606674758</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,135 +3200,135 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.0569468861728995</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.04745234602388437</v>
+        <v>-0.06208659662424184</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.03272846747300882</v>
+        <v>-0.01583742689418433</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01082878323963778</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.04728543683042601</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.006476218652047871</v>
+        <v>0.03623196866609824</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.03675721427396469</v>
+        <v>0.06072624471701864</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.03098561921561781</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.03463743330072951</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.0107630983848958</v>
+        <v>-0.009438428490801603</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.008185827227769612</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0348121387771467</v>
+        <v>0.02758468984329142</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.115725222097438</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01885017429170953</v>
+        <v>-0.01797212562789362</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.009602825404416798</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02846396844392844</v>
+        <v>0.007493283853484898</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0666384081993598</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001424094076983215</v>
+        <v>-0.0222413103694277</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.01166633611938843</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -3337,46 +3337,46 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004820295598053403</v>
+        <v>0.000459385868965544</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.005651121726711373</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-5.190935768899063e-11</v>
+        <v>-4.122289957046226e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.004900766268989622</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03013520091222333</v>
+        <v>0.02179328308179952</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.06254068149096402</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.01634568319165481</v>
+        <v>0.02925356702532132</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.003828641123606861</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.0399521844020108</v>
+        <v>0.004003869457291205</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.002927161687266702</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.009359701973283809</v>
+        <v>-0.02245485441372601</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.005680384663042289</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1402673680366797</v>
+        <v>0.05520854726722267</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.03164169808207042</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.0352202668407228</v>
+        <v>-0.01153047276568847</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01190400454645855</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3445,19 +3445,19 @@
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.003283923726809398</v>
+        <v>0.00393964046015192</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.04590339348983406</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.004402778849008247</v>
+        <v>-0.01522614369221218</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0.001548376432925018</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,79 +3466,79 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.03326472858734541</v>
+        <v>0.0357843735629183</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.03811321539243544</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03603233650840321</v>
+        <v>0.01497594228538059</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01288337878144544</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.00912942767180005</v>
+        <v>0.01681556064756924</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05666802538182615</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.01819103069270255</v>
+        <v>-0.01387590216502263</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.0178806770371268</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03083339004683992</v>
+        <v>-0.001442888832453634</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03066425265923809</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01987256871578839</v>
+        <v>-0.0002974510133814744</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.006666525213917775</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,136 +3547,136 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.04045522231821649</v>
+        <v>-0.0005720696776688587</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.02877466617586688</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.09826165298036178</v>
+        <v>0.001016362012112679</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01207545635112781</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03185733817069246</v>
+        <v>0.00380697083895547</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.02758445937418686</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.00951960062188468</v>
+        <v>0.001014792649864582</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.005595884972824366</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1182229059137884</v>
+        <v>-0.001123729468771648</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01242980643251724</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.0004870105665124475</v>
+        <v>-0.00031189740420467</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.0231761463406691</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.0123388845921452</v>
+        <v>0.002336493413922938</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.005533720096985835</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.0756207748050661</v>
+        <v>0.0166795349989682</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.002888798620690069</v>
       </c>
       <c r="DT6" t="n">
         <v>0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.02098457449814861</v>
+        <v>-0.01208803338650998</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.03682690649318932</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.0003671918435789708</v>
+        <v>-0.008952547927859121</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.001984830274798916</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,25 +3685,25 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03202668711465143</v>
+        <v>0.006965980992411702</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.05132303891087009</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.05193958546567344</v>
+        <v>0.001414257203462974</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.001867243265850634</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01408285810835892</v>
+        <v>-0.0002797262369646898</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.001584282135112532</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.03564808838473944</v>
+        <v>-0.01765893499562844</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.03378819555814749</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3739,82 +3739,82 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.02354385899801479</v>
+        <v>0.00426378942653754</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02218511279330143</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.022166833147474</v>
+        <v>0.000487067115732075</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.009789737144459316</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.02915423651531983</v>
+        <v>-0.007850121079093261</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02158403680620128</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.002757107659040631</v>
+        <v>-0.01513942483999426</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.02050011411704178</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.01091425760152261</v>
+        <v>-0.01054628926062933</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.04405139962635565</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.01272625917092742</v>
+        <v>-0.003315740762804567</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.004933424648197187</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02717149842857081</v>
+        <v>-0.02366752214168198</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.04029441687701998</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0.005232287434426565</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,46 +3849,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1136616185004456</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01499165658637904</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07376011142212266</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00270025464638148</v>
+        <v>-0.01854177320546914</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.02133704245934901</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.04809840817911103</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01869253101943037</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04583502455153359</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.04887888675354866</v>
+        <v>-0.06512794450610694</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,49 +3900,49 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.02353313422806881</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.003758571446441068</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00782819882738074</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.008828015231043923</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.01251295515912924</v>
+        <v>-0.00129149916023891</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.0004448356820049264</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.04070378227423674</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.002971878945791669</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0242208928738289</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.006058869505468615</v>
+        <v>0.02587750341297962</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3951,82 +3951,82 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.01493582182036787</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.03142282596730562</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.008949312771559815</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.04801438504520442</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01094680124135962</v>
+        <v>-0.02729864662053499</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01743481365086592</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.192722986532962</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.03366812715779223</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.05871555156370974</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01955936877715525</v>
+        <v>0.07329278521945905</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>-0.0001107656759079732</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.01206911466189209</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0052993638127421</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.05186917104106933</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.008978121245639931</v>
+        <v>-0.04141537813921098</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0.00934073746760569</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.02159103998878574</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05066611275425238</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03744107747668358</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.07452814436790632</v>
+        <v>0.08355596209678617</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0.02811358808801904</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.09907319534906581</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.00917591856265829</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.06722273955980043</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.04907428713042009</v>
+        <v>0.01000535705964963</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.009473760225144612</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.0231151977950157</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01212052034864508</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.03511484075056979</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02407188661954289</v>
+        <v>0.0007992666277344224</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.02914680365957997</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02372517519996744</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.009283210596168668</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.09585811365254371</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.001723595737801609</v>
+        <v>-0.01955311313188933</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.01041606192927356</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.01852686148374278</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01510834543963384</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.02427476696473786</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0179266949346842</v>
+        <v>0.006287272948533196</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4167,25 +4167,25 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.02895363816332878</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.07700324203984658</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.02053872536891309</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.02774806208758966</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.01727399399344954</v>
+        <v>0.02928948984498936</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.007881298973856277</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.0006514658011524504</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.0165009757360716</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.009406755294952071</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.04040995366632581</v>
+        <v>-0.00495292225081246</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4221,28 +4221,28 @@
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>7.29775030925512e-05</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.00284268102385678</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02933468145693804</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.03773483841889091</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.002057378654820087</v>
+        <v>-0.01782610710586427</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
@@ -4251,52 +4251,52 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>-0.009557320894835604</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.002001867775117797</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.007239798685769723</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.01985011741305692</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.006115540028946299</v>
+        <v>0.03054384964539728</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.03116203686820392</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03731047938797516</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0001766226159050073</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01841238047432243</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.01208615249641563</v>
+        <v>-0.005324279878063002</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
@@ -4305,76 +4305,76 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.0129949029744163</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.02989463240446355</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01106265338036453</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.01962962938709024</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02272036004778128</v>
+        <v>0.007010908084441859</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01679123726348924</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.03180431943795009</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.00853413172071932</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.004365559617439937</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.00846617000827775</v>
+        <v>-0.02314821104298326</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.01321263881745623</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.05221328933133468</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.001565390099171088</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.01937083032567764</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01690718433140197</v>
+        <v>0.01307906002836827</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
@@ -4383,37 +4383,37 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.0004167813294005878</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.03966815641694523</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01256031708587278</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.04860041221974769</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03590524781603489</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,28 +4987,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.3103561414237541</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1108195486868292</v>
+        <v>-0.1531024932183861</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06586296756337756</v>
+        <v>-0.03633587329307112</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04416849324041781</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1719411355610549</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07697427053111473</v>
+        <v>-0.1434774565282382</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0029696062326614</v>
+        <v>-0.09746305553680817</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.07415135150438032</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,97 +5044,97 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.03521904209986356</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.004816553991378488</v>
+        <v>0.003484730919290808</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.02905441433908769</v>
+        <v>0.002019854932342002</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.00796752106233708</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.1433504238963448</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.05104919832145719</v>
+        <v>-0.05851450483662803</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.00625012005428283</v>
+        <v>0.03854312138031091</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.01763182381720217</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>-0.005168095342208977</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.05876104393832555</v>
+        <v>-0.03490268283106915</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0750394184218196</v>
+        <v>-0.1223394724633551</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.01899725304911629</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.4735324936435902</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.05492287313828441</v>
+        <v>0.0357432730598158</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.07076632981010911</v>
+        <v>0.2144125234783662</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,25 +5143,25 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.08156788601859374</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.002183454793054325</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0577629468280622</v>
+        <v>-0.0561963265519158</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.01236794783187748</v>
+        <v>-0.1273189780987195</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -5170,34 +5170,34 @@
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.004416298476837015</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.2042493519358677</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.008891521211346513</v>
+        <v>0.01334239410733215</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.03038341677502275</v>
+        <v>0.1677908150616915</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.02452304949065108</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
@@ -5206,70 +5206,70 @@
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.25090901623241</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.09212615049335607</v>
+        <v>0.02149425048705285</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.02361452005748483</v>
+        <v>0.04884207975885654</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.09361295877661749</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.06748941604910144</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.03387932312433338</v>
+        <v>0.004410314597794694</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01160154300023479</v>
+        <v>-0.01547372102438291</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01105303394184974</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.1087723285376849</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.06929757526551053</v>
+        <v>-0.1524190033034282</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.07926119379377904</v>
+        <v>-0.1083886026351612</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,79 +5278,79 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0105723558943494</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
         <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.03734569545117718</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.03254840284830977</v>
+        <v>0.029858200771021</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01834871798710924</v>
+        <v>-0.001233737288401999</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.008121089130084637</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01739343052257666</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.0132736549142507</v>
+        <v>0.01789753748655446</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.04006226220054406</v>
+        <v>0.03754547421124504</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.05430317958750584</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.06870910375041643</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.03154901382868135</v>
+        <v>-0.05741984156332924</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.01889500010001228</v>
+        <v>-0.0005178719901881206</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,61 +5359,61 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.01314093739497769</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.03057806092138517</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.01251537251164246</v>
+        <v>-0.04289285222413675</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.021438205987565</v>
+        <v>-0.03066918440722576</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01092688820384181</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.0009089258758161764</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.08507412168421039</v>
+        <v>0.06466902582078619</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.01286584599326447</v>
+        <v>0.05549012941577131</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.03060422291064037</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,189 +5422,189 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.07686679980056092</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.04116984596072567</v>
+        <v>-0.06464132722335067</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.01944595151793476</v>
+        <v>-0.01387655890485309</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.03533174600934223</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.05014886794441304</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.03441962210692789</v>
+        <v>0.01611673868950689</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0199264861957302</v>
+        <v>0.01904479004526298</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.0254627589186221</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.06227071933161356</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.02325968307352191</v>
+        <v>0.04275476510703501</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.02021286380755387</v>
+        <v>-0.003649854358932698</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0.01361982312809218</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.06807668951862966</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.01260743594990608</v>
+        <v>-0.06063628624048316</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.07882244739540874</v>
+        <v>0.1018028673906357</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.02749844566141884</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.03938758513184229</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.01238355864945294</v>
+        <v>-0.07484534556923945</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0.002013283425990103</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.4259816322032363</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2556901710721644</v>
+        <v>-0.1678744880613211</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03608345365729628</v>
+        <v>-0.1581149287746292</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.003457518740654686</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.07230886510167833</v>
+        <v>0.006561357342530764</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2424388421192752</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2128537544218948</v>
+        <v>-0.1454847835175078</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.04804880530250762</v>
+        <v>-0.2424578537558282</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.01166675813859457</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.09576261560443525</v>
+        <v>0.0009850086416229938</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.09088965558007735</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01217484458070005</v>
+        <v>-0.01976525665681013</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.05436967852454062</v>
+        <v>0.003405376770020749</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03246014320687506</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01524356343865416</v>
+        <v>-0.0003933462052886738</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.09771221088317091</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.08292352443760533</v>
+        <v>0.08638746714185556</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.04819034197132486</v>
+        <v>-0.04634338211217969</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0322028151571544</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.02908432834801405</v>
+        <v>0.01334733170365163</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.01744155403331334</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.09503434472901336</v>
+        <v>-0.07169906677231733</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.04088706419227069</v>
+        <v>-0.104048537040536</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.03719408272126572</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.002214267878592622</v>
+        <v>0.01763712554206695</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,295 +5694,295 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.6366770696999785</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1073851282425552</v>
+        <v>0.01032794043049731</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1161010918641693</v>
+        <v>0.215736254214151</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.008291617849658362</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.09695889755118275</v>
+        <v>0.06969946094683648</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.006406151268222776</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1232749008330265</v>
+        <v>-0.06222297306098423</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.08154715203504474</v>
+        <v>-0.2690975732869395</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.01311740493594658</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0134670886349943</v>
+        <v>0.001923159870027743</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.2569773498871126</v>
       </c>
       <c r="BN10" t="n">
         <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.01595676224526953</v>
+        <v>0.1370813408178907</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05346249106789867</v>
+        <v>0.1846019276839643</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.02050138900690638</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.05861359152103518</v>
+        <v>0.04697994608930468</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.3127585727104896</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1336790786835513</v>
+        <v>0.04482540117108109</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0237681250527831</v>
+        <v>0.05496414106500923</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.007936902886374251</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.07505240707077183</v>
+        <v>0.008647107870544025</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.09902904275398759</v>
       </c>
       <c r="CF10" t="n">
         <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.06411763229350452</v>
+        <v>0.01996449091116983</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.00207887111571519</v>
+        <v>-0.0004176427909376596</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.002961739801712515</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.02051223331537442</v>
+        <v>0.004828318560303349</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.1473390314580556</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.04571613481060949</v>
+        <v>-0.1645562788891195</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1089787924382284</v>
+        <v>-0.05776533041925666</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.01921914391257726</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.03754131086599922</v>
+        <v>0.06153593110143597</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.06377439262864654</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.04656603444721805</v>
+        <v>0.052887794659549</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.001509865463718275</v>
+        <v>0.004266494971241605</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01426982594744332</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.009805995522994269</v>
+        <v>0.004846749556149256</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.07149671914322794</v>
       </c>
       <c r="DG10" t="n">
         <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.05609797490101722</v>
+        <v>0.03324769077944559</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.03363659055431475</v>
+        <v>0.003653520914688366</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.005792985580486298</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03222209990329871</v>
+        <v>-0.0005866103922514802</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.1077615797002603</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0414545551316658</v>
+        <v>-0.04455372880747833</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.06847714788020348</v>
+        <v>0.03466910121297651</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.0300479766102251</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.0329763970635635</v>
+        <v>-0.02380560453415971</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.02385684209118821</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.008493500704396643</v>
+        <v>-0.05006853825129523</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02149265580495497</v>
+        <v>-0.07101320543931398</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.04834767957875363</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.05152262579149672</v>
+        <v>-0.02349156797692327</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.04675462537943386</v>
       </c>
       <c r="EH10" t="n">
         <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1529465532078437</v>
+        <v>0.07376137341166529</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.01623404220745267</v>
+        <v>0.04513579232119509</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.0108634247672875</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0067868525103336</v>
+        <v>0.03979686016907934</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
@@ -5991,25 +5991,25 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.1066917646332838</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.03987240580733731</v>
+        <v>0.09323422890608676</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.004743470365381342</v>
+        <v>-0.03430629954353511</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.09434828998271945</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.01757425273679796</v>
+        <v>-0.002292134528121338</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,52 +6018,52 @@
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.07341195343361456</v>
       </c>
       <c r="EZ10" t="n">
         <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.04874305173577739</v>
+        <v>0.03905863709187449</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.003035073030297252</v>
+        <v>0.0286662288610752</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01815035353382847</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.02394536543996125</v>
+        <v>0.003168026049479378</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.07416874783723988</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.05518165994710868</v>
+        <v>-0.05626234468681927</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.06100044061802658</v>
+        <v>-0.03406945509610364</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.002898266669491881</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.004322714820190999</v>
+        <v>0.007778484432980369</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.1180833787114379</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.02788739373133367</v>
+        <v>-0.08371431783589488</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.04762514159115781</v>
+        <v>-0.0756125073020821</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.06415983443835449</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.04181441530590595</v>
+        <v>0.01218161400947745</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.1173292123265021</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.06139150476988098</v>
+        <v>-0.03425425906610514</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0131858145443692</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.01492640741003719</v>
+        <v>0.03444463729654101</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6125,28 +6125,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1074589540247111</v>
+        <v>0.2003284532055637</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1824427815629176</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05159290503625716</v>
+        <v>-0.1475623248632727</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.08074645436325685</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.080508808929193</v>
+        <v>0.1185087633909166</v>
       </c>
       <c r="L11" t="n">
         <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1438947874417515</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01626565576344043</v>
+        <v>-0.1413290486698002</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.08430843292753641</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
@@ -6176,52 +6176,52 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.006821797030758208</v>
+        <v>0.03148873614599242</v>
       </c>
       <c r="U11" t="n">
         <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.02290990102916283</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.05293720420571044</v>
+        <v>0.00745900907387284</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.027630779722285</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.05463475704702862</v>
+        <v>0.04760265263627353</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0643788008065076</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.04996715554548128</v>
+        <v>0.02549786818196067</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.02186477612432299</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,79 +6230,79 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.0192755150359426</v>
+        <v>0.04250454511073189</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01586518639992805</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.03134639978427384</v>
+        <v>-0.03100252085691105</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.01902414223660397</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.06023798821719972</v>
+        <v>0.2296194076938837</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.04482030794690337</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0231033081526138</v>
+        <v>-0.03495690208675777</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.01518128096352984</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.01779528851942881</v>
+        <v>0.04018408696850691</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.09060844753679002</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.01750036566612768</v>
+        <v>-0.09738925687967685</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.05267289082667884</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,58 +6311,58 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.05008176220168997</v>
+        <v>0.1157616528818147</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02054984109528049</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.006563639043134227</v>
+        <v>0.07499205992429689</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.03730946728959354</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.02637862949148564</v>
+        <v>0.1114951927906827</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.07850030843155122</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.04707461537444533</v>
+        <v>-0.0217464235473953</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.02788688088198231</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
@@ -6371,46 +6371,46 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03783791903279801</v>
+        <v>-0.03787204636942135</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.04268594736398096</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01156526237726709</v>
+        <v>0.01828749644702544</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.02221124817930002</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02766436879918493</v>
+        <v>-0.0478193260196479</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.04141498523588159</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1220174033670106</v>
+        <v>-0.04661937826973361</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.01678308079201058</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -6419,85 +6419,85 @@
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.04010586670683675</v>
+        <v>-0.01887795156493464</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.03589031976065337</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.009426351239224969</v>
+        <v>0.01670171850675937</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.02665433713015996</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05064636835641138</v>
+        <v>-0.0543402585817394</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02629895225660476</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.05177992680416437</v>
+        <v>0.01866677175554392</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.001260152459815914</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.00112281832301601</v>
+        <v>-0.04340219876955471</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.006563614639296307</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.03807303517896608</v>
+        <v>0.01947734612864144</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.04351804856657359</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>-0</v>
@@ -6506,22 +6506,22 @@
         <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01484319932787788</v>
+        <v>-0.004184235193898932</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03763647395439849</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02817568496409735</v>
+        <v>-0.04656214785294661</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>-0.03125452410825783</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
@@ -6533,46 +6533,46 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02905186818276496</v>
+        <v>0.004853959791523563</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.06203199516229753</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02538518886027383</v>
+        <v>0.01685700137050789</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.006152105506792397</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.02488982449180051</v>
+        <v>0.01969455823828409</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.007275571815620416</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.03350339505772354</v>
+        <v>-0.002970332440473214</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.0416060696336296</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
@@ -6581,52 +6581,52 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03572188940644765</v>
+        <v>-0.01538083057491701</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.03634968576702832</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01931329491528039</v>
+        <v>0.01457960315726394</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.0335829905423381</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.03463743384143404</v>
+        <v>-0.03350183050263326</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.04070492735019826</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.02078532562747958</v>
+        <v>-0.04281291736431082</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.02362509599704034</v>
       </c>
       <c r="FM11" t="n">
         <v>-0</v>
@@ -6638,52 +6638,52 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.005696394910649517</v>
+        <v>0.0008852507065909865</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.05142341298575283</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.06446317482839507</v>
+        <v>-0.01970076736575571</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.008508216419464813</v>
       </c>
       <c r="FV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW11" t="n">
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.03455237801269817</v>
+        <v>-0.05907635415833178</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.03697998287878854</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.02950596986048984</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2783507899448683</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3390125403215641</v>
+        <v>-0.1567698305669457</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001060376255176516</v>
+        <v>-0.04314019691998732</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1429294992005547</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,16 +6724,16 @@
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1695493465461461</v>
       </c>
       <c r="L12" t="n">
         <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2827938262388938</v>
+        <v>-0.1460438177712817</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.09680231332757043</v>
+        <v>-0.07068547598809212</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -6742,61 +6742,61 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1783995990842509</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.06816521374358819</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.008316899513257078</v>
+        <v>0.009884813846848074</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.09138472456969447</v>
+        <v>0.03626935587268824</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.03931662242785735</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1223743137842651</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1000809004529709</v>
+        <v>-0.009103857370985907</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.0148840468782971</v>
+        <v>-0.01232410258183162</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.01610951712028852</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,43 +6805,43 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.007647578302124945</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.09239421817332924</v>
+        <v>-0.02732571383253406</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.07020866408846789</v>
+        <v>-0.0749886288473362</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.02758879324614145</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.3634289500555293</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1398397716023201</v>
+        <v>0.0408371135029624</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.00238984783759201</v>
+        <v>0.1137185054932755</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,214 +6850,214 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.1536125540679497</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0.005875582175542297</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1552710281563071</v>
+        <v>-0.08049838926111079</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.00788026092799558</v>
+        <v>-0.1311431836514666</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.01831766271846663</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1258414886290692</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01335535759071551</v>
+        <v>0.006283049525998104</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.02016377078065873</v>
+        <v>0.1193214249294913</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.07875228379431008</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.1928304181295795</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1399786219262692</v>
+        <v>0.02653467436267144</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.02759846213904456</v>
+        <v>0.0735219653762739</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.1392861161947512</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.05938162090734363</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.08381243970120607</v>
+        <v>0.0002289857809065573</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.03300286594160574</v>
+        <v>-0.01107734973589113</v>
       </c>
       <c r="CI12" t="n">
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.04483177801577584</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.07336132852384401</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.08577103017391254</v>
+        <v>-0.1253255707566642</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1220881933386509</v>
+        <v>-0.05700117785781658</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.07022067211389152</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.02715547390201285</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.07476569832633104</v>
+        <v>0.01742061893772363</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.03688716382083598</v>
+        <v>-0.007051517132674867</v>
       </c>
       <c r="DA12" t="n">
         <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.04319953630185051</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.05730873296736465</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.05039827775262119</v>
+        <v>0.0147528187533959</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.0927025973651782</v>
+        <v>0.07094335858169661</v>
       </c>
       <c r="DJ12" t="n">
         <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.02278631675116781</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.06141047062449132</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.02671946808877237</v>
+        <v>0.01337022886359442</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.01684794840114033</v>
+        <v>-0.03829413678612164</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7066,52 +7066,52 @@
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.01078616593056491</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.0431885914341151</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02277868869470685</v>
+        <v>0.04070382045676444</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.05072502295491888</v>
+        <v>-0.01877070969609844</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
         <v>-0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.0304652475025281</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.008189786439984623</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.1506455903150674</v>
+        <v>0.03507582479266349</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.0322603227443092</v>
+        <v>0.06104917869988355</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
@@ -7120,115 +7120,115 @@
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.06227083211590329</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.04529930119675849</v>
       </c>
       <c r="EQ12" t="n">
         <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.05833340071723737</v>
+        <v>0.0236647668648878</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.04675844834998465</v>
+        <v>0.03866584567448064</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.03672446711075508</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.03796863712197205</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.07411404184397351</v>
+        <v>0.01072474915329128</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.03659045035493316</v>
+        <v>0.007651782362332809</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.05833539262274585</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.05649532116580634</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.0791437685906472</v>
+        <v>0.02074653506986128</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.05278362603505593</v>
+        <v>-0.04069233845702301</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.0230174501795626</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.05269487872635672</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.01669640024764657</v>
+        <v>-0.05242776800701888</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.06959578119587828</v>
+        <v>0.05945193313010842</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.05234258177162188</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,25 +7237,25 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.006112135077122285</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.04153757777233028</v>
+        <v>-0.07491276865732255</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.005830172416477391</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7266,184 +7266,184 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1538480020968853</v>
+        <v>0.4665621304668553</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2942948525373173</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06281621549667088</v>
+        <v>-0.1050421589734973</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.3798365090585497</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1394525717671796</v>
+        <v>0.3475950843924356</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2304071608816643</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.00880865785185278</v>
+        <v>-0.08318547196511381</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.3576605702948973</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.00892543312888461</v>
+        <v>0.05146994832744293</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.03908274859742832</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.1005029527417326</v>
+        <v>-0.01510364759251233</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0.01176666011136721</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.05604145049752227</v>
+        <v>0.06080335729691853</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.09481681659966869</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.1092331976546725</v>
+        <v>0.0391114020128145</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.04017455391896687</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.02093188393570948</v>
+        <v>0.06362746318441122</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.02820235346360225</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02291295439176256</v>
+        <v>0.001006772383745671</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.06720074416303581</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1150578857933567</v>
+        <v>0.375167771239022</v>
       </c>
       <c r="AV13" t="n">
         <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.07011814525489482</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.02166634728405601</v>
+        <v>-0.02053269586224446</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.1674139266135458</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.02108049288490152</v>
+        <v>0.1253273287919058</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1403598870761358</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.00511425104597408</v>
+        <v>-0.104227551371531</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.1276149032896083</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -7452,22 +7452,22 @@
         <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.05076257994704608</v>
+        <v>0.1360660032589155</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.03080731414064626</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.00188830469597519</v>
+        <v>0.07527654616142156</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.02855342291944482</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,52 +7476,52 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.02488834961015542</v>
+        <v>0.2020884531697853</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.1073536177183354</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.07939938745284048</v>
+        <v>-0.04455259827693758</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.1118710102516323</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.04687876871825639</v>
+        <v>-0.08825863448527281</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.06129665398020194</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.009122326002873502</v>
+        <v>-0.006407981680952734</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.08321333525911236</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,25 +7533,25 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.008689918563527636</v>
+        <v>-0.08734395907042281</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.02500352249658713</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1397962710920621</v>
+        <v>-0.03140158486791071</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.009433444400432887</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7563,19 +7563,19 @@
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.03657529921127678</v>
+        <v>-0.0657357479466322</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.05574046413960634</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01189494690568143</v>
+        <v>-0.005282047057217411</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.08589172134791066</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7587,22 +7587,22 @@
         <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.04514550559034036</v>
+        <v>-0.06771428612008003</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.004637809560149826</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.05376739868360199</v>
+        <v>0.02396704723663188</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.0222797968767464</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,31 +7611,31 @@
         <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.006800465362477856</v>
+        <v>-0.0542955967436283</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01305876167420354</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.04927347321074105</v>
+        <v>0.03061163933193488</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.01058518790685225</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
@@ -7644,22 +7644,22 @@
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.05518222209137302</v>
+        <v>0.008614851019512929</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.03989827810049613</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01067170043798997</v>
+        <v>0.006730768323058503</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.03318324491840238</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7671,25 +7671,25 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0337339108088851</v>
+        <v>-0.03524041805942586</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.1039053061394457</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.0399869117191638</v>
+        <v>0.01741738607522207</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.07012310578256475</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>0</v>
@@ -7698,19 +7698,19 @@
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.02031434030507383</v>
+        <v>-0.01660764276269707</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.01574236452149373</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.01084857212287838</v>
+        <v>-0.007533997115604164</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.07471318898621125</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
@@ -7722,22 +7722,22 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.04127725677282893</v>
+        <v>-0.0601727225160874</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.05374626297101553</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.02319459503957126</v>
+        <v>-0.001130900462296355</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.08591831130363328</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7746,52 +7746,52 @@
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.01738384663968509</v>
+        <v>-0.04960370416953896</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.07725378075478795</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.04675311496363223</v>
+        <v>-0.01424661583233029</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0.04825260597194534</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.01532640987844758</v>
+        <v>0.01040502680258809</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0002705560641034893</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.04827592208619737</v>
+        <v>-0.04416228011876092</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.01197027907342603</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
@@ -7800,25 +7800,25 @@
         <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02830881469355129</v>
+        <v>-0.02666276518072906</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.04441699183263421</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.03656540227212324</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
@@ -7832,100 +7832,100 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.5510545727633092</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.27654897928693</v>
+        <v>-0.1758324647836556</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02401501968806008</v>
+        <v>-0.1579047206825233</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1309514911416325</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.3380761022927478</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.226492148154962</v>
+        <v>-0.1377646098911542</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.08125687206348045</v>
+        <v>-0.1394680784956407</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1459359405094937</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.1045988644638824</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.003020582314108454</v>
+        <v>-0.0210509296809802</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.08397490325642477</v>
+        <v>0.04225315524227074</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.03569126017269836</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0.105485255683727</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.08133521816663103</v>
+        <v>0.003083320401866868</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.02699634959603395</v>
+        <v>0.003697119932299389</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
@@ -7934,214 +7934,214 @@
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.02868287704821672</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>0.0126788771290071</v>
       </c>
       <c r="AM14" t="n">
         <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.09137589740067492</v>
+        <v>-0.07237398149077609</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.02616698347704653</v>
+        <v>-0.09153939822678707</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.03172599581634641</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.4373458854493958</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1288067742428011</v>
+        <v>0.04968077896957774</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.01342852191401386</v>
+        <v>0.05955317479811895</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.1545676875856165</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.02663723620754396</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.1249646075963967</v>
+        <v>-0.09165541383501924</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.05263992266802449</v>
+        <v>-0.2087453833995604</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.01919787130782305</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.1194612235442133</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.001317798839667393</v>
+        <v>0.04786076591424689</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.005035700353915372</v>
+        <v>0.1429394721231063</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.06734923578624093</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>0.2116740377713686</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1048511523494967</v>
+        <v>0.0567644346339902</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.04185645017729798</v>
+        <v>0.02093818732326761</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.1009725134825421</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.1160284367411193</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.06993741430183049</v>
+        <v>0.01388354741492934</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.02808824809083162</v>
+        <v>-0.01539804547200292</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.03662230819711593</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>-0.01056033382867436</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.06529420184694575</v>
+        <v>-0.1049667669879633</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1301909700189579</v>
+        <v>-0.09001555348937813</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0433571380299558</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0.09341672102454733</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.0600534036944878</v>
+        <v>0.0351969519486122</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.02496359710138241</v>
+        <v>-0.01784944714434282</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
@@ -8150,25 +8150,25 @@
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.02861672142775095</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="n">
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>0.004123261275330501</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001766475322119326</v>
+        <v>0.02219735002350104</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.05397639947334425</v>
+        <v>0.03458721926693872</v>
       </c>
       <c r="DJ14" t="n">
         <v>0</v>
@@ -8177,115 +8177,115 @@
         <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.02594287030039569</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>-0.04388295922739893</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0.002306768052384892</v>
+        <v>0.06527442517556514</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0153039562294074</v>
+        <v>-0.0622802181275218</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.04620548952819045</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.03510095016547504</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.01980891142821273</v>
+        <v>-0.001838232754058247</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.01693641820655733</v>
+        <v>-0.08335579725466342</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.03194665492023883</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>-0.09873466561788502</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.1092628589846712</v>
+        <v>0.03752483748216181</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03153473455736435</v>
+        <v>0.08233427732548619</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
         <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.04548099989168647</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.06681668771123532</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.014024072770775</v>
+        <v>0.02719126345673609</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.01471566008600227</v>
+        <v>0.01793925719140006</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.003496126743455355</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
@@ -8294,52 +8294,52 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.09495810294369821</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.06495233968289871</v>
+        <v>0.02431244505785948</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.03338093257380334</v>
+        <v>0.01020310731179171</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.04166653189305639</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0.001585774585808661</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.06606894539037329</v>
+        <v>0.07431937727075238</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.08665194257765965</v>
+        <v>-0.08642680355221523</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.02947610891621731</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8348,25 +8348,25 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.008371896577597855</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.005271168992112088</v>
+        <v>-0.01722261811518054</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.01510794654511246</v>
+        <v>-0.01498037652753454</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.04291438186827564</v>
+        <v>-0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
@@ -8375,25 +8375,25 @@
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.005680393313427879</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.02793399557599934</v>
+        <v>-0.06444579431684745</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.01867996377974862</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8401,46 +8401,46 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.5042019061187226</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7279919760070406</v>
+        <v>-0.1648163550993095</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1611872526023305</v>
+        <v>-0.2302475940318286</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2001042523818994</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.4165475737397498</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6468985015417551</v>
+        <v>-0.1533362540572669</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01032435678242693</v>
+        <v>-0.2155408273981144</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -8449,28 +8449,28 @@
         <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1010024805138754</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.1051202290685186</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0379005277265668</v>
+        <v>0.02189053973875994</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.2638222080799868</v>
+        <v>0.0415812082830426</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y15" t="n">
         <v>-0</v>
@@ -8479,103 +8479,103 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.02823572170702424</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.1600146544437294</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.146784818071677</v>
+        <v>-0.03377682627995913</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.01237546628113922</v>
+        <v>-0.001847176035024953</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
         <v>-0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.03827148225071553</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.04454801081111021</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.1542099667169118</v>
+        <v>-0.01028759251675942</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01252006247242035</v>
+        <v>-0.06203623988097771</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.02267708557562922</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
         <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.4139190905738754</v>
       </c>
       <c r="AV15" t="n">
         <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.3292827951750826</v>
+        <v>0.03612820895401574</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1023260452075313</v>
+        <v>0.04452731182416555</v>
       </c>
       <c r="AY15" t="n">
         <v>-0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA15" t="n">
         <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.2187588523438124</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.03979667438347437</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.2049857328189046</v>
+        <v>-0.0824288984936787</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.00972174236690315</v>
+        <v>-0.2030130615397683</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
@@ -8587,25 +8587,25 @@
         <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.0222615108418036</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.08036800609527707</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.02201452796230784</v>
+        <v>0.01942899971220466</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.02064401466756064</v>
+        <v>0.07902544403026353</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR15" t="n">
         <v>-0</v>
@@ -8614,22 +8614,22 @@
         <v>-0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.0109979293428131</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.2564920173166301</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.2713874515657967</v>
+        <v>-0.005867021994631369</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.0009285777042599769</v>
+        <v>0.0424117734659945</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
@@ -8641,211 +8641,211 @@
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>-0.2233739741440754</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.09276998947227159</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0.1448967061407669</v>
+        <v>0.02281940164936659</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.006542612959839377</v>
+        <v>0.01408208424647766</v>
       </c>
       <c r="CI15" t="n">
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0003381899528610702</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>-0.07712309901056921</v>
       </c>
       <c r="CO15" t="n">
         <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.09292687408126973</v>
+        <v>-0.05034424638398825</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.1504212908393577</v>
+        <v>-0.1381307957155735</v>
       </c>
       <c r="CR15" t="n">
         <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
         <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0008793426634820814</v>
+        <v>-0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>-0.06931748166088583</v>
       </c>
       <c r="CX15" t="n">
         <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0.131663255455795</v>
+        <v>0.03232229259586932</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.003719013003940705</v>
+        <v>0.01102203140620761</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.005521315324689626</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.01943646959995355</v>
       </c>
       <c r="DG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0.0317203526065138</v>
+        <v>0.02208548686082589</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.007922574756457301</v>
+        <v>-0.002331226893112591</v>
       </c>
       <c r="DJ15" t="n">
         <v>0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL15" t="n">
         <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.001113085155558632</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.02462360016664726</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.00467354282466712</v>
+        <v>-0.03308998652850587</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.01410739389744145</v>
+        <v>-0.0280888729911582</v>
       </c>
       <c r="DS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>-0.09098640264761713</v>
+        <v>0</v>
       </c>
       <c r="DW15" t="n">
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>0.04972552876885833</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.04931679452406994</v>
+        <v>-0.0362535444211706</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.01947907347354983</v>
+        <v>0.002214879617914185</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED15" t="n">
         <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>-0.1021306119806418</v>
+        <v>-0</v>
       </c>
       <c r="EF15" t="n">
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>-0.07501441528007886</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0.2225667712896031</v>
+        <v>0.05133164896802291</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.09502708571511065</v>
+        <v>0.07547912683882237</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
         <v>-0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.01151317317692114</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>-0.05431554385521863</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0.1006061979296914</v>
+        <v>0.0236157549512712</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.05098592905839777</v>
+        <v>0.07974915538730297</v>
       </c>
       <c r="ET15" t="n">
         <v>-0</v>
@@ -8854,109 +8854,109 @@
         <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.08430730647047018</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>-0.07684382784263072</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA15" t="n">
-        <v>-0.1233819803437577</v>
+        <v>0.04197804094994189</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.005167372379757821</v>
+        <v>0.01521829424323854</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.03530111661554485</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
         <v>-0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>-0.004518288790913454</v>
       </c>
       <c r="FI15" t="n">
         <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0.09277327746551696</v>
+        <v>0.06073639346552966</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.04679018497111494</v>
+        <v>-0.05502135839099695</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
         <v>0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.05441722110936269</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>-0.009263285713766802</v>
       </c>
       <c r="FR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.005620930355258081</v>
+        <v>-0.1297497523112299</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.01654266868118186</v>
+        <v>0.0176017700755606</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV15" t="n">
         <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0.0002183857769540599</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
         <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>-0.02970438109530304</v>
       </c>
       <c r="GA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.03067606307761774</v>
+        <v>-0.03634370604425367</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE15" t="n">
         <v>-0</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>-0.02178359353407197</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
